--- a/jyx2/Assets/Mods/PLUS/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/物品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12275" windowHeight="8952"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="652">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -1933,6 +1933,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>金</t>
     </r>
     <r>
@@ -2016,6 +2022,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>最</t>
     </r>
     <r>
@@ -2112,10 +2124,33 @@
     <t>采自燕子坞花圃，美丽芬芳</t>
   </si>
   <si>
-    <t>迷宫地图</t>
-  </si>
-  <si>
-    <t>迷图</t>
+    <t>客栈导游券</t>
+  </si>
+  <si>
+    <r>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游券</t>
+    </r>
+  </si>
+  <si>
+    <t>连锁客栈的导游券</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2163,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2150,12 +2185,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2622,31 +2651,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2655,19 +2693,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2679,107 +2711,104 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2794,7 +2823,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3192,9 +3220,9 @@
   <dimension ref="A1:AX207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C211" sqref="C211"/>
+      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -32477,7 +32505,7 @@
       <c r="B197" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="4" t="s">
         <v>624</v>
       </c>
       <c r="D197" s="3" t="s">
@@ -33377,7 +33405,7 @@
       <c r="B203" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="4" t="s">
         <v>639</v>
       </c>
       <c r="D203" s="3" t="s">
@@ -33524,13 +33552,13 @@
       <c r="A204" s="3">
         <v>201</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="D204" s="8" t="s">
+      <c r="D204" s="4" t="s">
         <v>642</v>
       </c>
       <c r="E204" s="3">
@@ -33827,7 +33855,7 @@
       <c r="B206" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="4" t="s">
         <v>647</v>
       </c>
       <c r="D206" s="3" t="s">
@@ -33970,18 +33998,18 @@
       </c>
       <c r="AX206" s="7"/>
     </row>
-    <row r="207" spans="1:50">
+    <row r="207" customFormat="1" spans="1:50">
       <c r="A207" s="3">
         <v>204</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="D207" s="8" t="s">
-        <v>649</v>
+      <c r="D207" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="E207" s="3">
         <v>-1</v>

--- a/jyx2/Assets/Mods/PLUS/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/物品.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$3:$AX$264</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="713">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -2081,6 +2084,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一</t>
     </r>
     <r>
@@ -2128,6 +2137,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>导</t>
     </r>
     <r>
@@ -2151,6 +2166,209 @@
   </si>
   <si>
     <t>连锁客栈的导游券</t>
+  </si>
+  <si>
+    <t>秘笈残片</t>
+  </si>
+  <si>
+    <r>
+      <t>残</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>片</t>
+    </r>
+  </si>
+  <si>
+    <t>紫霞秘籍残片</t>
+  </si>
+  <si>
+    <t>小无相功残片</t>
+  </si>
+  <si>
+    <t>十八瓷偶</t>
+  </si>
+  <si>
+    <t>瓷</t>
+  </si>
+  <si>
+    <t>神照经残片</t>
+  </si>
+  <si>
+    <t>易筋经残片</t>
+  </si>
+  <si>
+    <t>洗髓经残片</t>
+  </si>
+  <si>
+    <t>梯云纵心法残片</t>
+  </si>
+  <si>
+    <t>神行百变残片</t>
+  </si>
+  <si>
+    <t>凌波微步残片</t>
+  </si>
+  <si>
+    <t>子午针灸经残片</t>
+  </si>
+  <si>
+    <t>华陀内昭图残片</t>
+  </si>
+  <si>
+    <t>胡青牛医书残片</t>
+  </si>
+  <si>
+    <t>五毒秘传残片</t>
+  </si>
+  <si>
+    <t>毒经残片</t>
+  </si>
+  <si>
+    <t>药王神篇残片</t>
+  </si>
+  <si>
+    <t>铁掌拳谱残片</t>
+  </si>
+  <si>
+    <t>七伤拳谱残片</t>
+  </si>
+  <si>
+    <t>天山六阳掌残片</t>
+  </si>
+  <si>
+    <t>玄冥神掌残片</t>
+  </si>
+  <si>
+    <t>太极拳经残片</t>
+  </si>
+  <si>
+    <t>龙象般若功残片</t>
+  </si>
+  <si>
+    <t>太玄经残片</t>
+  </si>
+  <si>
+    <t>黯然销魂掌残片</t>
+  </si>
+  <si>
+    <t>降龙十八掌残片</t>
+  </si>
+  <si>
+    <t>北冥神功残片</t>
+  </si>
+  <si>
+    <t>吸星大法残片</t>
+  </si>
+  <si>
+    <t>木王神鼎</t>
+  </si>
+  <si>
+    <t>神鼎</t>
+  </si>
+  <si>
+    <t>六脉神剑谱残片</t>
+  </si>
+  <si>
+    <t>松风剑谱残片</t>
+  </si>
+  <si>
+    <t>泰山十八盘残片</t>
+  </si>
+  <si>
+    <t>回峰落雁剑法残片</t>
+  </si>
+  <si>
+    <t>七星剑谱残片</t>
+  </si>
+  <si>
+    <t>两仪剑法残片</t>
+  </si>
+  <si>
+    <t>金蛇秘籍残片</t>
+  </si>
+  <si>
+    <t>玉女素心剑法残片</t>
+  </si>
+  <si>
+    <t>苗家剑法残片</t>
+  </si>
+  <si>
+    <t>太极剑法残片</t>
+  </si>
+  <si>
+    <t>达摩剑谱残片</t>
+  </si>
+  <si>
+    <t>玄铁剑法残片</t>
+  </si>
+  <si>
+    <t>辟邪剑谱残片</t>
+  </si>
+  <si>
+    <t>独孤九剑残片</t>
+  </si>
+  <si>
+    <t>血刀经残片</t>
+  </si>
+  <si>
+    <t>火焰刀法残片</t>
+  </si>
+  <si>
+    <t>反两仪刀法残片</t>
+  </si>
+  <si>
+    <t>狂风刀法残片</t>
+  </si>
+  <si>
+    <t>胡家刀法残片</t>
+  </si>
+  <si>
+    <t>霹雳刀法残片</t>
+  </si>
+  <si>
+    <t>毒龙鞭法残片</t>
+  </si>
+  <si>
+    <t>黄沙万里鞭法残片</t>
+  </si>
+  <si>
+    <t>满天花雨残片</t>
+  </si>
+  <si>
+    <t>霹雳秘籍残片</t>
+  </si>
+  <si>
+    <t>含沙射影残片</t>
+  </si>
+  <si>
+    <t>左右互搏之术残片</t>
+  </si>
+  <si>
+    <t>乾坤大挪移残片</t>
+  </si>
+  <si>
+    <t>葵花宝典残片</t>
+  </si>
+  <si>
+    <t>九阴真经残片</t>
+  </si>
+  <si>
+    <t>九阳真经残片</t>
   </si>
 </sst>
 </file>
@@ -3217,16 +3435,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AX207"/>
+  <dimension ref="A1:AX264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
+      <selection pane="bottomLeft" activeCell="AM234" sqref="AM234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="20.5555555555556" customWidth="1"/>
     <col min="50" max="50" width="28.3796296296296" style="1" customWidth="1"/>
   </cols>
@@ -9688,7 +9907,7 @@
       <c r="A45" s="3">
         <v>41</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>217</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -13300,7 +13519,7 @@
       <c r="A69" s="3">
         <v>65</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -34148,7 +34367,8560 @@
       </c>
       <c r="AX207" s="7"/>
     </row>
+    <row r="208" spans="1:50">
+      <c r="A208" s="3">
+        <v>239</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E208" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F208" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G208" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H208" s="3">
+        <v>0</v>
+      </c>
+      <c r="I208" s="3">
+        <v>0</v>
+      </c>
+      <c r="J208" s="3">
+        <v>0</v>
+      </c>
+      <c r="K208" s="3">
+        <v>0</v>
+      </c>
+      <c r="L208" s="3">
+        <v>0</v>
+      </c>
+      <c r="M208" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N208" s="3">
+        <v>0</v>
+      </c>
+      <c r="O208" s="3">
+        <v>0</v>
+      </c>
+      <c r="P208" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="3">
+        <v>0</v>
+      </c>
+      <c r="R208" s="3">
+        <v>0</v>
+      </c>
+      <c r="S208" s="3">
+        <v>0</v>
+      </c>
+      <c r="T208" s="3">
+        <v>0</v>
+      </c>
+      <c r="U208" s="3">
+        <v>0</v>
+      </c>
+      <c r="V208" s="3">
+        <v>0</v>
+      </c>
+      <c r="W208" s="3">
+        <v>0</v>
+      </c>
+      <c r="X208" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF208" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU208" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW208" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX208" s="7"/>
+    </row>
+    <row r="209" spans="1:50">
+      <c r="A209" s="3">
+        <v>240</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E209" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F209" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H209" s="3">
+        <v>0</v>
+      </c>
+      <c r="I209" s="3">
+        <v>0</v>
+      </c>
+      <c r="J209" s="3">
+        <v>0</v>
+      </c>
+      <c r="K209" s="3">
+        <v>0</v>
+      </c>
+      <c r="L209" s="3">
+        <v>0</v>
+      </c>
+      <c r="M209" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N209" s="3">
+        <v>0</v>
+      </c>
+      <c r="O209" s="3">
+        <v>0</v>
+      </c>
+      <c r="P209" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q209" s="3">
+        <v>0</v>
+      </c>
+      <c r="R209" s="3">
+        <v>0</v>
+      </c>
+      <c r="S209" s="3">
+        <v>0</v>
+      </c>
+      <c r="T209" s="3">
+        <v>0</v>
+      </c>
+      <c r="U209" s="3">
+        <v>0</v>
+      </c>
+      <c r="V209" s="3">
+        <v>0</v>
+      </c>
+      <c r="W209" s="3">
+        <v>0</v>
+      </c>
+      <c r="X209" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y209" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF209" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU209" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV209" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW209" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX209" s="7"/>
+    </row>
+    <row r="210" spans="1:50">
+      <c r="A210" s="3">
+        <v>241</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="E210" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F210" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0</v>
+      </c>
+      <c r="I210" s="3">
+        <v>0</v>
+      </c>
+      <c r="J210" s="3">
+        <v>0</v>
+      </c>
+      <c r="K210" s="3">
+        <v>0</v>
+      </c>
+      <c r="L210" s="3">
+        <v>0</v>
+      </c>
+      <c r="M210" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N210" s="3">
+        <v>0</v>
+      </c>
+      <c r="O210" s="3">
+        <v>0</v>
+      </c>
+      <c r="P210" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q210" s="3">
+        <v>0</v>
+      </c>
+      <c r="R210" s="3">
+        <v>0</v>
+      </c>
+      <c r="S210" s="3">
+        <v>0</v>
+      </c>
+      <c r="T210" s="3">
+        <v>0</v>
+      </c>
+      <c r="U210" s="3">
+        <v>0</v>
+      </c>
+      <c r="V210" s="3">
+        <v>0</v>
+      </c>
+      <c r="W210" s="3">
+        <v>0</v>
+      </c>
+      <c r="X210" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y210" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF210" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU210" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV210" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW210" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX210" s="7"/>
+    </row>
+    <row r="211" spans="1:50">
+      <c r="A211" s="3">
+        <v>242</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E211" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F211" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H211" s="3">
+        <v>0</v>
+      </c>
+      <c r="I211" s="3">
+        <v>0</v>
+      </c>
+      <c r="J211" s="3">
+        <v>0</v>
+      </c>
+      <c r="K211" s="3">
+        <v>0</v>
+      </c>
+      <c r="L211" s="3">
+        <v>0</v>
+      </c>
+      <c r="M211" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N211" s="3">
+        <v>0</v>
+      </c>
+      <c r="O211" s="3">
+        <v>0</v>
+      </c>
+      <c r="P211" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q211" s="3">
+        <v>0</v>
+      </c>
+      <c r="R211" s="3">
+        <v>0</v>
+      </c>
+      <c r="S211" s="3">
+        <v>0</v>
+      </c>
+      <c r="T211" s="3">
+        <v>0</v>
+      </c>
+      <c r="U211" s="3">
+        <v>0</v>
+      </c>
+      <c r="V211" s="3">
+        <v>0</v>
+      </c>
+      <c r="W211" s="3">
+        <v>0</v>
+      </c>
+      <c r="X211" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y211" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF211" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU211" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV211" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW211" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX211" s="7"/>
+    </row>
+    <row r="212" spans="1:50">
+      <c r="A212" s="3">
+        <v>243</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E212" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F212" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H212" s="3">
+        <v>0</v>
+      </c>
+      <c r="I212" s="3">
+        <v>0</v>
+      </c>
+      <c r="J212" s="3">
+        <v>0</v>
+      </c>
+      <c r="K212" s="3">
+        <v>0</v>
+      </c>
+      <c r="L212" s="3">
+        <v>0</v>
+      </c>
+      <c r="M212" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N212" s="3">
+        <v>0</v>
+      </c>
+      <c r="O212" s="3">
+        <v>0</v>
+      </c>
+      <c r="P212" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q212" s="3">
+        <v>0</v>
+      </c>
+      <c r="R212" s="3">
+        <v>0</v>
+      </c>
+      <c r="S212" s="3">
+        <v>0</v>
+      </c>
+      <c r="T212" s="3">
+        <v>0</v>
+      </c>
+      <c r="U212" s="3">
+        <v>0</v>
+      </c>
+      <c r="V212" s="3">
+        <v>0</v>
+      </c>
+      <c r="W212" s="3">
+        <v>0</v>
+      </c>
+      <c r="X212" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y212" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF212" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU212" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV212" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW212" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX212" s="7"/>
+    </row>
+    <row r="213" spans="1:50">
+      <c r="A213" s="3">
+        <v>244</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E213" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F213" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G213" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H213" s="3">
+        <v>0</v>
+      </c>
+      <c r="I213" s="3">
+        <v>0</v>
+      </c>
+      <c r="J213" s="3">
+        <v>0</v>
+      </c>
+      <c r="K213" s="3">
+        <v>0</v>
+      </c>
+      <c r="L213" s="3">
+        <v>0</v>
+      </c>
+      <c r="M213" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N213" s="3">
+        <v>0</v>
+      </c>
+      <c r="O213" s="3">
+        <v>0</v>
+      </c>
+      <c r="P213" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q213" s="3">
+        <v>0</v>
+      </c>
+      <c r="R213" s="3">
+        <v>0</v>
+      </c>
+      <c r="S213" s="3">
+        <v>0</v>
+      </c>
+      <c r="T213" s="3">
+        <v>0</v>
+      </c>
+      <c r="U213" s="3">
+        <v>0</v>
+      </c>
+      <c r="V213" s="3">
+        <v>0</v>
+      </c>
+      <c r="W213" s="3">
+        <v>0</v>
+      </c>
+      <c r="X213" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y213" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF213" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU213" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW213" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX213" s="7"/>
+    </row>
+    <row r="214" spans="1:50">
+      <c r="A214" s="3">
+        <v>245</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E214" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F214" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G214" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H214" s="3">
+        <v>0</v>
+      </c>
+      <c r="I214" s="3">
+        <v>0</v>
+      </c>
+      <c r="J214" s="3">
+        <v>0</v>
+      </c>
+      <c r="K214" s="3">
+        <v>0</v>
+      </c>
+      <c r="L214" s="3">
+        <v>0</v>
+      </c>
+      <c r="M214" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N214" s="3">
+        <v>0</v>
+      </c>
+      <c r="O214" s="3">
+        <v>0</v>
+      </c>
+      <c r="P214" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q214" s="3">
+        <v>0</v>
+      </c>
+      <c r="R214" s="3">
+        <v>0</v>
+      </c>
+      <c r="S214" s="3">
+        <v>0</v>
+      </c>
+      <c r="T214" s="3">
+        <v>0</v>
+      </c>
+      <c r="U214" s="3">
+        <v>0</v>
+      </c>
+      <c r="V214" s="3">
+        <v>0</v>
+      </c>
+      <c r="W214" s="3">
+        <v>0</v>
+      </c>
+      <c r="X214" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y214" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF214" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU214" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW214" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX214" s="7"/>
+    </row>
+    <row r="215" spans="1:50">
+      <c r="A215" s="3">
+        <v>246</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E215" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F215" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G215" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H215" s="3">
+        <v>0</v>
+      </c>
+      <c r="I215" s="3">
+        <v>0</v>
+      </c>
+      <c r="J215" s="3">
+        <v>0</v>
+      </c>
+      <c r="K215" s="3">
+        <v>0</v>
+      </c>
+      <c r="L215" s="3">
+        <v>0</v>
+      </c>
+      <c r="M215" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N215" s="3">
+        <v>0</v>
+      </c>
+      <c r="O215" s="3">
+        <v>0</v>
+      </c>
+      <c r="P215" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q215" s="3">
+        <v>0</v>
+      </c>
+      <c r="R215" s="3">
+        <v>0</v>
+      </c>
+      <c r="S215" s="3">
+        <v>0</v>
+      </c>
+      <c r="T215" s="3">
+        <v>0</v>
+      </c>
+      <c r="U215" s="3">
+        <v>0</v>
+      </c>
+      <c r="V215" s="3">
+        <v>0</v>
+      </c>
+      <c r="W215" s="3">
+        <v>0</v>
+      </c>
+      <c r="X215" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y215" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF215" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU215" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW215" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX215" s="7"/>
+    </row>
+    <row r="216" spans="1:50">
+      <c r="A216" s="3">
+        <v>247</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E216" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F216" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G216" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H216" s="3">
+        <v>0</v>
+      </c>
+      <c r="I216" s="3">
+        <v>0</v>
+      </c>
+      <c r="J216" s="3">
+        <v>0</v>
+      </c>
+      <c r="K216" s="3">
+        <v>0</v>
+      </c>
+      <c r="L216" s="3">
+        <v>0</v>
+      </c>
+      <c r="M216" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N216" s="3">
+        <v>0</v>
+      </c>
+      <c r="O216" s="3">
+        <v>0</v>
+      </c>
+      <c r="P216" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q216" s="3">
+        <v>0</v>
+      </c>
+      <c r="R216" s="3">
+        <v>0</v>
+      </c>
+      <c r="S216" s="3">
+        <v>0</v>
+      </c>
+      <c r="T216" s="3">
+        <v>0</v>
+      </c>
+      <c r="U216" s="3">
+        <v>0</v>
+      </c>
+      <c r="V216" s="3">
+        <v>0</v>
+      </c>
+      <c r="W216" s="3">
+        <v>0</v>
+      </c>
+      <c r="X216" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y216" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF216" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU216" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW216" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX216" s="7"/>
+    </row>
+    <row r="217" spans="1:50">
+      <c r="A217" s="3">
+        <v>248</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E217" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F217" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G217" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H217" s="3">
+        <v>0</v>
+      </c>
+      <c r="I217" s="3">
+        <v>0</v>
+      </c>
+      <c r="J217" s="3">
+        <v>0</v>
+      </c>
+      <c r="K217" s="3">
+        <v>0</v>
+      </c>
+      <c r="L217" s="3">
+        <v>0</v>
+      </c>
+      <c r="M217" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N217" s="3">
+        <v>0</v>
+      </c>
+      <c r="O217" s="3">
+        <v>0</v>
+      </c>
+      <c r="P217" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q217" s="3">
+        <v>0</v>
+      </c>
+      <c r="R217" s="3">
+        <v>0</v>
+      </c>
+      <c r="S217" s="3">
+        <v>0</v>
+      </c>
+      <c r="T217" s="3">
+        <v>0</v>
+      </c>
+      <c r="U217" s="3">
+        <v>0</v>
+      </c>
+      <c r="V217" s="3">
+        <v>0</v>
+      </c>
+      <c r="W217" s="3">
+        <v>0</v>
+      </c>
+      <c r="X217" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y217" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF217" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU217" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW217" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX217" s="7"/>
+    </row>
+    <row r="218" spans="1:50">
+      <c r="A218" s="3">
+        <v>249</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E218" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F218" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G218" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H218" s="3">
+        <v>0</v>
+      </c>
+      <c r="I218" s="3">
+        <v>0</v>
+      </c>
+      <c r="J218" s="3">
+        <v>0</v>
+      </c>
+      <c r="K218" s="3">
+        <v>0</v>
+      </c>
+      <c r="L218" s="3">
+        <v>0</v>
+      </c>
+      <c r="M218" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N218" s="3">
+        <v>0</v>
+      </c>
+      <c r="O218" s="3">
+        <v>0</v>
+      </c>
+      <c r="P218" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q218" s="3">
+        <v>0</v>
+      </c>
+      <c r="R218" s="3">
+        <v>0</v>
+      </c>
+      <c r="S218" s="3">
+        <v>0</v>
+      </c>
+      <c r="T218" s="3">
+        <v>0</v>
+      </c>
+      <c r="U218" s="3">
+        <v>0</v>
+      </c>
+      <c r="V218" s="3">
+        <v>0</v>
+      </c>
+      <c r="W218" s="3">
+        <v>0</v>
+      </c>
+      <c r="X218" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y218" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF218" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU218" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW218" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX218" s="7"/>
+    </row>
+    <row r="219" spans="1:50">
+      <c r="A219" s="3">
+        <v>250</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E219" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F219" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G219" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H219" s="3">
+        <v>0</v>
+      </c>
+      <c r="I219" s="3">
+        <v>0</v>
+      </c>
+      <c r="J219" s="3">
+        <v>0</v>
+      </c>
+      <c r="K219" s="3">
+        <v>0</v>
+      </c>
+      <c r="L219" s="3">
+        <v>0</v>
+      </c>
+      <c r="M219" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N219" s="3">
+        <v>0</v>
+      </c>
+      <c r="O219" s="3">
+        <v>0</v>
+      </c>
+      <c r="P219" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q219" s="3">
+        <v>0</v>
+      </c>
+      <c r="R219" s="3">
+        <v>0</v>
+      </c>
+      <c r="S219" s="3">
+        <v>0</v>
+      </c>
+      <c r="T219" s="3">
+        <v>0</v>
+      </c>
+      <c r="U219" s="3">
+        <v>0</v>
+      </c>
+      <c r="V219" s="3">
+        <v>0</v>
+      </c>
+      <c r="W219" s="3">
+        <v>0</v>
+      </c>
+      <c r="X219" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y219" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF219" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU219" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW219" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX219" s="7"/>
+    </row>
+    <row r="220" spans="1:50">
+      <c r="A220" s="3">
+        <v>251</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E220" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F220" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G220" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H220" s="3">
+        <v>0</v>
+      </c>
+      <c r="I220" s="3">
+        <v>0</v>
+      </c>
+      <c r="J220" s="3">
+        <v>0</v>
+      </c>
+      <c r="K220" s="3">
+        <v>0</v>
+      </c>
+      <c r="L220" s="3">
+        <v>0</v>
+      </c>
+      <c r="M220" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N220" s="3">
+        <v>0</v>
+      </c>
+      <c r="O220" s="3">
+        <v>0</v>
+      </c>
+      <c r="P220" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q220" s="3">
+        <v>0</v>
+      </c>
+      <c r="R220" s="3">
+        <v>0</v>
+      </c>
+      <c r="S220" s="3">
+        <v>0</v>
+      </c>
+      <c r="T220" s="3">
+        <v>0</v>
+      </c>
+      <c r="U220" s="3">
+        <v>0</v>
+      </c>
+      <c r="V220" s="3">
+        <v>0</v>
+      </c>
+      <c r="W220" s="3">
+        <v>0</v>
+      </c>
+      <c r="X220" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y220" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF220" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU220" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW220" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX220" s="7"/>
+    </row>
+    <row r="221" spans="1:50">
+      <c r="A221" s="3">
+        <v>252</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E221" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F221" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G221" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H221" s="3">
+        <v>0</v>
+      </c>
+      <c r="I221" s="3">
+        <v>0</v>
+      </c>
+      <c r="J221" s="3">
+        <v>0</v>
+      </c>
+      <c r="K221" s="3">
+        <v>0</v>
+      </c>
+      <c r="L221" s="3">
+        <v>0</v>
+      </c>
+      <c r="M221" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N221" s="3">
+        <v>0</v>
+      </c>
+      <c r="O221" s="3">
+        <v>0</v>
+      </c>
+      <c r="P221" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q221" s="3">
+        <v>0</v>
+      </c>
+      <c r="R221" s="3">
+        <v>0</v>
+      </c>
+      <c r="S221" s="3">
+        <v>0</v>
+      </c>
+      <c r="T221" s="3">
+        <v>0</v>
+      </c>
+      <c r="U221" s="3">
+        <v>0</v>
+      </c>
+      <c r="V221" s="3">
+        <v>0</v>
+      </c>
+      <c r="W221" s="3">
+        <v>0</v>
+      </c>
+      <c r="X221" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y221" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF221" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU221" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW221" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX221" s="7"/>
+    </row>
+    <row r="222" spans="1:50">
+      <c r="A222" s="3">
+        <v>253</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E222" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F222" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G222" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H222" s="3">
+        <v>0</v>
+      </c>
+      <c r="I222" s="3">
+        <v>0</v>
+      </c>
+      <c r="J222" s="3">
+        <v>0</v>
+      </c>
+      <c r="K222" s="3">
+        <v>0</v>
+      </c>
+      <c r="L222" s="3">
+        <v>0</v>
+      </c>
+      <c r="M222" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N222" s="3">
+        <v>0</v>
+      </c>
+      <c r="O222" s="3">
+        <v>0</v>
+      </c>
+      <c r="P222" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q222" s="3">
+        <v>0</v>
+      </c>
+      <c r="R222" s="3">
+        <v>0</v>
+      </c>
+      <c r="S222" s="3">
+        <v>0</v>
+      </c>
+      <c r="T222" s="3">
+        <v>0</v>
+      </c>
+      <c r="U222" s="3">
+        <v>0</v>
+      </c>
+      <c r="V222" s="3">
+        <v>0</v>
+      </c>
+      <c r="W222" s="3">
+        <v>0</v>
+      </c>
+      <c r="X222" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y222" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF222" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU222" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW222" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX222" s="7"/>
+    </row>
+    <row r="223" spans="1:50">
+      <c r="A223" s="3">
+        <v>254</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E223" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F223" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G223" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H223" s="3">
+        <v>0</v>
+      </c>
+      <c r="I223" s="3">
+        <v>0</v>
+      </c>
+      <c r="J223" s="3">
+        <v>0</v>
+      </c>
+      <c r="K223" s="3">
+        <v>0</v>
+      </c>
+      <c r="L223" s="3">
+        <v>0</v>
+      </c>
+      <c r="M223" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N223" s="3">
+        <v>0</v>
+      </c>
+      <c r="O223" s="3">
+        <v>0</v>
+      </c>
+      <c r="P223" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q223" s="3">
+        <v>0</v>
+      </c>
+      <c r="R223" s="3">
+        <v>0</v>
+      </c>
+      <c r="S223" s="3">
+        <v>0</v>
+      </c>
+      <c r="T223" s="3">
+        <v>0</v>
+      </c>
+      <c r="U223" s="3">
+        <v>0</v>
+      </c>
+      <c r="V223" s="3">
+        <v>0</v>
+      </c>
+      <c r="W223" s="3">
+        <v>0</v>
+      </c>
+      <c r="X223" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y223" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF223" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU223" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW223" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX223" s="7"/>
+    </row>
+    <row r="224" spans="1:50">
+      <c r="A224" s="3">
+        <v>255</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E224" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F224" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G224" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H224" s="3">
+        <v>0</v>
+      </c>
+      <c r="I224" s="3">
+        <v>0</v>
+      </c>
+      <c r="J224" s="3">
+        <v>0</v>
+      </c>
+      <c r="K224" s="3">
+        <v>0</v>
+      </c>
+      <c r="L224" s="3">
+        <v>0</v>
+      </c>
+      <c r="M224" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N224" s="3">
+        <v>0</v>
+      </c>
+      <c r="O224" s="3">
+        <v>0</v>
+      </c>
+      <c r="P224" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q224" s="3">
+        <v>0</v>
+      </c>
+      <c r="R224" s="3">
+        <v>0</v>
+      </c>
+      <c r="S224" s="3">
+        <v>0</v>
+      </c>
+      <c r="T224" s="3">
+        <v>0</v>
+      </c>
+      <c r="U224" s="3">
+        <v>0</v>
+      </c>
+      <c r="V224" s="3">
+        <v>0</v>
+      </c>
+      <c r="W224" s="3">
+        <v>0</v>
+      </c>
+      <c r="X224" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y224" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF224" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU224" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW224" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX224" s="7"/>
+    </row>
+    <row r="225" spans="1:50">
+      <c r="A225" s="3">
+        <v>256</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="E225" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F225" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G225" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H225" s="3">
+        <v>0</v>
+      </c>
+      <c r="I225" s="3">
+        <v>0</v>
+      </c>
+      <c r="J225" s="3">
+        <v>0</v>
+      </c>
+      <c r="K225" s="3">
+        <v>0</v>
+      </c>
+      <c r="L225" s="3">
+        <v>0</v>
+      </c>
+      <c r="M225" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N225" s="3">
+        <v>0</v>
+      </c>
+      <c r="O225" s="3">
+        <v>0</v>
+      </c>
+      <c r="P225" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q225" s="3">
+        <v>0</v>
+      </c>
+      <c r="R225" s="3">
+        <v>0</v>
+      </c>
+      <c r="S225" s="3">
+        <v>0</v>
+      </c>
+      <c r="T225" s="3">
+        <v>0</v>
+      </c>
+      <c r="U225" s="3">
+        <v>0</v>
+      </c>
+      <c r="V225" s="3">
+        <v>0</v>
+      </c>
+      <c r="W225" s="3">
+        <v>0</v>
+      </c>
+      <c r="X225" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y225" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF225" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU225" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW225" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX225" s="7"/>
+    </row>
+    <row r="226" spans="1:50">
+      <c r="A226" s="3">
+        <v>257</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E226" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F226" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G226" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H226" s="3">
+        <v>0</v>
+      </c>
+      <c r="I226" s="3">
+        <v>0</v>
+      </c>
+      <c r="J226" s="3">
+        <v>0</v>
+      </c>
+      <c r="K226" s="3">
+        <v>0</v>
+      </c>
+      <c r="L226" s="3">
+        <v>0</v>
+      </c>
+      <c r="M226" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N226" s="3">
+        <v>0</v>
+      </c>
+      <c r="O226" s="3">
+        <v>0</v>
+      </c>
+      <c r="P226" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q226" s="3">
+        <v>0</v>
+      </c>
+      <c r="R226" s="3">
+        <v>0</v>
+      </c>
+      <c r="S226" s="3">
+        <v>0</v>
+      </c>
+      <c r="T226" s="3">
+        <v>0</v>
+      </c>
+      <c r="U226" s="3">
+        <v>0</v>
+      </c>
+      <c r="V226" s="3">
+        <v>0</v>
+      </c>
+      <c r="W226" s="3">
+        <v>0</v>
+      </c>
+      <c r="X226" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y226" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF226" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU226" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW226" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX226" s="7"/>
+    </row>
+    <row r="227" spans="1:50">
+      <c r="A227" s="3">
+        <v>258</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E227" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F227" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G227" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H227" s="3">
+        <v>0</v>
+      </c>
+      <c r="I227" s="3">
+        <v>0</v>
+      </c>
+      <c r="J227" s="3">
+        <v>0</v>
+      </c>
+      <c r="K227" s="3">
+        <v>0</v>
+      </c>
+      <c r="L227" s="3">
+        <v>0</v>
+      </c>
+      <c r="M227" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N227" s="3">
+        <v>0</v>
+      </c>
+      <c r="O227" s="3">
+        <v>0</v>
+      </c>
+      <c r="P227" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q227" s="3">
+        <v>0</v>
+      </c>
+      <c r="R227" s="3">
+        <v>0</v>
+      </c>
+      <c r="S227" s="3">
+        <v>0</v>
+      </c>
+      <c r="T227" s="3">
+        <v>0</v>
+      </c>
+      <c r="U227" s="3">
+        <v>0</v>
+      </c>
+      <c r="V227" s="3">
+        <v>0</v>
+      </c>
+      <c r="W227" s="3">
+        <v>0</v>
+      </c>
+      <c r="X227" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y227" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF227" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU227" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW227" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX227" s="7"/>
+    </row>
+    <row r="228" spans="1:50">
+      <c r="A228" s="3">
+        <v>259</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E228" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F228" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G228" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H228" s="3">
+        <v>0</v>
+      </c>
+      <c r="I228" s="3">
+        <v>0</v>
+      </c>
+      <c r="J228" s="3">
+        <v>0</v>
+      </c>
+      <c r="K228" s="3">
+        <v>0</v>
+      </c>
+      <c r="L228" s="3">
+        <v>0</v>
+      </c>
+      <c r="M228" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N228" s="3">
+        <v>0</v>
+      </c>
+      <c r="O228" s="3">
+        <v>0</v>
+      </c>
+      <c r="P228" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q228" s="3">
+        <v>0</v>
+      </c>
+      <c r="R228" s="3">
+        <v>0</v>
+      </c>
+      <c r="S228" s="3">
+        <v>0</v>
+      </c>
+      <c r="T228" s="3">
+        <v>0</v>
+      </c>
+      <c r="U228" s="3">
+        <v>0</v>
+      </c>
+      <c r="V228" s="3">
+        <v>0</v>
+      </c>
+      <c r="W228" s="3">
+        <v>0</v>
+      </c>
+      <c r="X228" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y228" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF228" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU228" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW228" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX228" s="7"/>
+    </row>
+    <row r="229" spans="1:50">
+      <c r="A229" s="3">
+        <v>260</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E229" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F229" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G229" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H229" s="3">
+        <v>0</v>
+      </c>
+      <c r="I229" s="3">
+        <v>0</v>
+      </c>
+      <c r="J229" s="3">
+        <v>0</v>
+      </c>
+      <c r="K229" s="3">
+        <v>0</v>
+      </c>
+      <c r="L229" s="3">
+        <v>0</v>
+      </c>
+      <c r="M229" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N229" s="3">
+        <v>0</v>
+      </c>
+      <c r="O229" s="3">
+        <v>0</v>
+      </c>
+      <c r="P229" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q229" s="3">
+        <v>0</v>
+      </c>
+      <c r="R229" s="3">
+        <v>0</v>
+      </c>
+      <c r="S229" s="3">
+        <v>0</v>
+      </c>
+      <c r="T229" s="3">
+        <v>0</v>
+      </c>
+      <c r="U229" s="3">
+        <v>0</v>
+      </c>
+      <c r="V229" s="3">
+        <v>0</v>
+      </c>
+      <c r="W229" s="3">
+        <v>0</v>
+      </c>
+      <c r="X229" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y229" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF229" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU229" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW229" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX229" s="7"/>
+    </row>
+    <row r="230" spans="1:50">
+      <c r="A230" s="3">
+        <v>261</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E230" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F230" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G230" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H230" s="3">
+        <v>0</v>
+      </c>
+      <c r="I230" s="3">
+        <v>0</v>
+      </c>
+      <c r="J230" s="3">
+        <v>0</v>
+      </c>
+      <c r="K230" s="3">
+        <v>0</v>
+      </c>
+      <c r="L230" s="3">
+        <v>0</v>
+      </c>
+      <c r="M230" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N230" s="3">
+        <v>0</v>
+      </c>
+      <c r="O230" s="3">
+        <v>0</v>
+      </c>
+      <c r="P230" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q230" s="3">
+        <v>0</v>
+      </c>
+      <c r="R230" s="3">
+        <v>0</v>
+      </c>
+      <c r="S230" s="3">
+        <v>0</v>
+      </c>
+      <c r="T230" s="3">
+        <v>0</v>
+      </c>
+      <c r="U230" s="3">
+        <v>0</v>
+      </c>
+      <c r="V230" s="3">
+        <v>0</v>
+      </c>
+      <c r="W230" s="3">
+        <v>0</v>
+      </c>
+      <c r="X230" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y230" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF230" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU230" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW230" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX230" s="7"/>
+    </row>
+    <row r="231" spans="1:50">
+      <c r="A231" s="3">
+        <v>262</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E231" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F231" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G231" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H231" s="3">
+        <v>0</v>
+      </c>
+      <c r="I231" s="3">
+        <v>0</v>
+      </c>
+      <c r="J231" s="3">
+        <v>0</v>
+      </c>
+      <c r="K231" s="3">
+        <v>0</v>
+      </c>
+      <c r="L231" s="3">
+        <v>0</v>
+      </c>
+      <c r="M231" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N231" s="3">
+        <v>0</v>
+      </c>
+      <c r="O231" s="3">
+        <v>0</v>
+      </c>
+      <c r="P231" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q231" s="3">
+        <v>0</v>
+      </c>
+      <c r="R231" s="3">
+        <v>0</v>
+      </c>
+      <c r="S231" s="3">
+        <v>0</v>
+      </c>
+      <c r="T231" s="3">
+        <v>0</v>
+      </c>
+      <c r="U231" s="3">
+        <v>0</v>
+      </c>
+      <c r="V231" s="3">
+        <v>0</v>
+      </c>
+      <c r="W231" s="3">
+        <v>0</v>
+      </c>
+      <c r="X231" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y231" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF231" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU231" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW231" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX231" s="7"/>
+    </row>
+    <row r="232" spans="1:50">
+      <c r="A232" s="3">
+        <v>263</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E232" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F232" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G232" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H232" s="3">
+        <v>0</v>
+      </c>
+      <c r="I232" s="3">
+        <v>0</v>
+      </c>
+      <c r="J232" s="3">
+        <v>0</v>
+      </c>
+      <c r="K232" s="3">
+        <v>0</v>
+      </c>
+      <c r="L232" s="3">
+        <v>0</v>
+      </c>
+      <c r="M232" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N232" s="3">
+        <v>0</v>
+      </c>
+      <c r="O232" s="3">
+        <v>0</v>
+      </c>
+      <c r="P232" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q232" s="3">
+        <v>0</v>
+      </c>
+      <c r="R232" s="3">
+        <v>0</v>
+      </c>
+      <c r="S232" s="3">
+        <v>0</v>
+      </c>
+      <c r="T232" s="3">
+        <v>0</v>
+      </c>
+      <c r="U232" s="3">
+        <v>0</v>
+      </c>
+      <c r="V232" s="3">
+        <v>0</v>
+      </c>
+      <c r="W232" s="3">
+        <v>0</v>
+      </c>
+      <c r="X232" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y232" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF232" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU232" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW232" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX232" s="7"/>
+    </row>
+    <row r="233" spans="1:50">
+      <c r="A233" s="3">
+        <v>264</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E233" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F233" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G233" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H233" s="3">
+        <v>0</v>
+      </c>
+      <c r="I233" s="3">
+        <v>0</v>
+      </c>
+      <c r="J233" s="3">
+        <v>0</v>
+      </c>
+      <c r="K233" s="3">
+        <v>0</v>
+      </c>
+      <c r="L233" s="3">
+        <v>0</v>
+      </c>
+      <c r="M233" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N233" s="3">
+        <v>0</v>
+      </c>
+      <c r="O233" s="3">
+        <v>0</v>
+      </c>
+      <c r="P233" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q233" s="3">
+        <v>0</v>
+      </c>
+      <c r="R233" s="3">
+        <v>0</v>
+      </c>
+      <c r="S233" s="3">
+        <v>0</v>
+      </c>
+      <c r="T233" s="3">
+        <v>0</v>
+      </c>
+      <c r="U233" s="3">
+        <v>0</v>
+      </c>
+      <c r="V233" s="3">
+        <v>0</v>
+      </c>
+      <c r="W233" s="3">
+        <v>0</v>
+      </c>
+      <c r="X233" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y233" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF233" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU233" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW233" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX233" s="7"/>
+    </row>
+    <row r="234" spans="1:50">
+      <c r="A234" s="3">
+        <v>265</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="E234" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F234" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G234" s="3">
+        <v>0</v>
+      </c>
+      <c r="H234" s="3">
+        <v>1</v>
+      </c>
+      <c r="I234" s="3">
+        <v>0</v>
+      </c>
+      <c r="J234" s="3">
+        <v>0</v>
+      </c>
+      <c r="K234" s="3">
+        <v>0</v>
+      </c>
+      <c r="L234" s="3">
+        <v>0</v>
+      </c>
+      <c r="M234" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N234" s="3">
+        <v>0</v>
+      </c>
+      <c r="O234" s="3">
+        <v>0</v>
+      </c>
+      <c r="P234" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q234" s="3">
+        <v>0</v>
+      </c>
+      <c r="R234" s="3">
+        <v>0</v>
+      </c>
+      <c r="S234" s="3">
+        <v>0</v>
+      </c>
+      <c r="T234" s="3">
+        <v>0</v>
+      </c>
+      <c r="U234" s="3">
+        <v>0</v>
+      </c>
+      <c r="V234" s="3">
+        <v>100</v>
+      </c>
+      <c r="W234" s="3">
+        <v>0</v>
+      </c>
+      <c r="X234" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y234" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE234" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF234" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK234" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN234" s="3">
+        <v>60</v>
+      </c>
+      <c r="AO234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU234" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW234" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX234" s="7"/>
+    </row>
+    <row r="235" spans="1:50">
+      <c r="A235" s="3">
+        <v>266</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E235" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F235" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G235" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H235" s="3">
+        <v>0</v>
+      </c>
+      <c r="I235" s="3">
+        <v>0</v>
+      </c>
+      <c r="J235" s="3">
+        <v>0</v>
+      </c>
+      <c r="K235" s="3">
+        <v>0</v>
+      </c>
+      <c r="L235" s="3">
+        <v>0</v>
+      </c>
+      <c r="M235" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N235" s="3">
+        <v>0</v>
+      </c>
+      <c r="O235" s="3">
+        <v>0</v>
+      </c>
+      <c r="P235" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q235" s="3">
+        <v>0</v>
+      </c>
+      <c r="R235" s="3">
+        <v>0</v>
+      </c>
+      <c r="S235" s="3">
+        <v>0</v>
+      </c>
+      <c r="T235" s="3">
+        <v>0</v>
+      </c>
+      <c r="U235" s="3">
+        <v>0</v>
+      </c>
+      <c r="V235" s="3">
+        <v>0</v>
+      </c>
+      <c r="W235" s="3">
+        <v>0</v>
+      </c>
+      <c r="X235" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y235" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF235" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU235" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW235" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX235" s="7"/>
+    </row>
+    <row r="236" spans="1:50">
+      <c r="A236" s="3">
+        <v>267</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E236" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F236" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G236" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H236" s="3">
+        <v>0</v>
+      </c>
+      <c r="I236" s="3">
+        <v>0</v>
+      </c>
+      <c r="J236" s="3">
+        <v>0</v>
+      </c>
+      <c r="K236" s="3">
+        <v>0</v>
+      </c>
+      <c r="L236" s="3">
+        <v>0</v>
+      </c>
+      <c r="M236" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N236" s="3">
+        <v>0</v>
+      </c>
+      <c r="O236" s="3">
+        <v>0</v>
+      </c>
+      <c r="P236" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q236" s="3">
+        <v>0</v>
+      </c>
+      <c r="R236" s="3">
+        <v>0</v>
+      </c>
+      <c r="S236" s="3">
+        <v>0</v>
+      </c>
+      <c r="T236" s="3">
+        <v>0</v>
+      </c>
+      <c r="U236" s="3">
+        <v>0</v>
+      </c>
+      <c r="V236" s="3">
+        <v>0</v>
+      </c>
+      <c r="W236" s="3">
+        <v>0</v>
+      </c>
+      <c r="X236" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y236" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF236" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU236" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW236" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX236" s="7"/>
+    </row>
+    <row r="237" spans="1:50">
+      <c r="A237" s="3">
+        <v>268</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E237" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F237" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G237" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H237" s="3">
+        <v>0</v>
+      </c>
+      <c r="I237" s="3">
+        <v>0</v>
+      </c>
+      <c r="J237" s="3">
+        <v>0</v>
+      </c>
+      <c r="K237" s="3">
+        <v>0</v>
+      </c>
+      <c r="L237" s="3">
+        <v>0</v>
+      </c>
+      <c r="M237" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N237" s="3">
+        <v>0</v>
+      </c>
+      <c r="O237" s="3">
+        <v>0</v>
+      </c>
+      <c r="P237" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q237" s="3">
+        <v>0</v>
+      </c>
+      <c r="R237" s="3">
+        <v>0</v>
+      </c>
+      <c r="S237" s="3">
+        <v>0</v>
+      </c>
+      <c r="T237" s="3">
+        <v>0</v>
+      </c>
+      <c r="U237" s="3">
+        <v>0</v>
+      </c>
+      <c r="V237" s="3">
+        <v>0</v>
+      </c>
+      <c r="W237" s="3">
+        <v>0</v>
+      </c>
+      <c r="X237" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y237" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF237" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU237" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW237" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX237" s="7"/>
+    </row>
+    <row r="238" spans="1:50">
+      <c r="A238" s="3">
+        <v>269</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E238" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F238" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G238" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H238" s="3">
+        <v>0</v>
+      </c>
+      <c r="I238" s="3">
+        <v>0</v>
+      </c>
+      <c r="J238" s="3">
+        <v>0</v>
+      </c>
+      <c r="K238" s="3">
+        <v>0</v>
+      </c>
+      <c r="L238" s="3">
+        <v>0</v>
+      </c>
+      <c r="M238" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N238" s="3">
+        <v>0</v>
+      </c>
+      <c r="O238" s="3">
+        <v>0</v>
+      </c>
+      <c r="P238" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q238" s="3">
+        <v>0</v>
+      </c>
+      <c r="R238" s="3">
+        <v>0</v>
+      </c>
+      <c r="S238" s="3">
+        <v>0</v>
+      </c>
+      <c r="T238" s="3">
+        <v>0</v>
+      </c>
+      <c r="U238" s="3">
+        <v>0</v>
+      </c>
+      <c r="V238" s="3">
+        <v>0</v>
+      </c>
+      <c r="W238" s="3">
+        <v>0</v>
+      </c>
+      <c r="X238" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y238" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF238" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU238" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW238" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX238" s="7"/>
+    </row>
+    <row r="239" spans="1:50">
+      <c r="A239" s="3">
+        <v>270</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E239" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F239" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G239" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H239" s="3">
+        <v>0</v>
+      </c>
+      <c r="I239" s="3">
+        <v>0</v>
+      </c>
+      <c r="J239" s="3">
+        <v>0</v>
+      </c>
+      <c r="K239" s="3">
+        <v>0</v>
+      </c>
+      <c r="L239" s="3">
+        <v>0</v>
+      </c>
+      <c r="M239" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N239" s="3">
+        <v>0</v>
+      </c>
+      <c r="O239" s="3">
+        <v>0</v>
+      </c>
+      <c r="P239" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q239" s="3">
+        <v>0</v>
+      </c>
+      <c r="R239" s="3">
+        <v>0</v>
+      </c>
+      <c r="S239" s="3">
+        <v>0</v>
+      </c>
+      <c r="T239" s="3">
+        <v>0</v>
+      </c>
+      <c r="U239" s="3">
+        <v>0</v>
+      </c>
+      <c r="V239" s="3">
+        <v>0</v>
+      </c>
+      <c r="W239" s="3">
+        <v>0</v>
+      </c>
+      <c r="X239" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y239" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF239" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU239" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW239" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX239" s="7"/>
+    </row>
+    <row r="240" spans="1:50">
+      <c r="A240" s="3">
+        <v>271</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E240" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F240" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G240" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H240" s="3">
+        <v>0</v>
+      </c>
+      <c r="I240" s="3">
+        <v>0</v>
+      </c>
+      <c r="J240" s="3">
+        <v>0</v>
+      </c>
+      <c r="K240" s="3">
+        <v>0</v>
+      </c>
+      <c r="L240" s="3">
+        <v>0</v>
+      </c>
+      <c r="M240" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N240" s="3">
+        <v>0</v>
+      </c>
+      <c r="O240" s="3">
+        <v>0</v>
+      </c>
+      <c r="P240" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q240" s="3">
+        <v>0</v>
+      </c>
+      <c r="R240" s="3">
+        <v>0</v>
+      </c>
+      <c r="S240" s="3">
+        <v>0</v>
+      </c>
+      <c r="T240" s="3">
+        <v>0</v>
+      </c>
+      <c r="U240" s="3">
+        <v>0</v>
+      </c>
+      <c r="V240" s="3">
+        <v>0</v>
+      </c>
+      <c r="W240" s="3">
+        <v>0</v>
+      </c>
+      <c r="X240" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y240" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF240" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU240" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW240" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX240" s="7"/>
+    </row>
+    <row r="241" spans="1:50">
+      <c r="A241" s="3">
+        <v>272</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E241" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F241" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G241" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H241" s="3">
+        <v>0</v>
+      </c>
+      <c r="I241" s="3">
+        <v>0</v>
+      </c>
+      <c r="J241" s="3">
+        <v>0</v>
+      </c>
+      <c r="K241" s="3">
+        <v>0</v>
+      </c>
+      <c r="L241" s="3">
+        <v>0</v>
+      </c>
+      <c r="M241" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N241" s="3">
+        <v>0</v>
+      </c>
+      <c r="O241" s="3">
+        <v>0</v>
+      </c>
+      <c r="P241" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q241" s="3">
+        <v>0</v>
+      </c>
+      <c r="R241" s="3">
+        <v>0</v>
+      </c>
+      <c r="S241" s="3">
+        <v>0</v>
+      </c>
+      <c r="T241" s="3">
+        <v>0</v>
+      </c>
+      <c r="U241" s="3">
+        <v>0</v>
+      </c>
+      <c r="V241" s="3">
+        <v>0</v>
+      </c>
+      <c r="W241" s="3">
+        <v>0</v>
+      </c>
+      <c r="X241" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y241" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF241" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU241" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW241" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX241" s="7"/>
+    </row>
+    <row r="242" spans="1:50">
+      <c r="A242" s="3">
+        <v>273</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E242" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F242" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G242" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H242" s="3">
+        <v>0</v>
+      </c>
+      <c r="I242" s="3">
+        <v>0</v>
+      </c>
+      <c r="J242" s="3">
+        <v>0</v>
+      </c>
+      <c r="K242" s="3">
+        <v>0</v>
+      </c>
+      <c r="L242" s="3">
+        <v>0</v>
+      </c>
+      <c r="M242" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N242" s="3">
+        <v>0</v>
+      </c>
+      <c r="O242" s="3">
+        <v>0</v>
+      </c>
+      <c r="P242" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q242" s="3">
+        <v>0</v>
+      </c>
+      <c r="R242" s="3">
+        <v>0</v>
+      </c>
+      <c r="S242" s="3">
+        <v>0</v>
+      </c>
+      <c r="T242" s="3">
+        <v>0</v>
+      </c>
+      <c r="U242" s="3">
+        <v>0</v>
+      </c>
+      <c r="V242" s="3">
+        <v>0</v>
+      </c>
+      <c r="W242" s="3">
+        <v>0</v>
+      </c>
+      <c r="X242" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y242" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF242" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU242" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW242" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX242" s="7"/>
+    </row>
+    <row r="243" spans="1:50">
+      <c r="A243" s="3">
+        <v>274</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E243" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F243" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G243" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H243" s="3">
+        <v>0</v>
+      </c>
+      <c r="I243" s="3">
+        <v>0</v>
+      </c>
+      <c r="J243" s="3">
+        <v>0</v>
+      </c>
+      <c r="K243" s="3">
+        <v>0</v>
+      </c>
+      <c r="L243" s="3">
+        <v>0</v>
+      </c>
+      <c r="M243" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N243" s="3">
+        <v>0</v>
+      </c>
+      <c r="O243" s="3">
+        <v>0</v>
+      </c>
+      <c r="P243" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q243" s="3">
+        <v>0</v>
+      </c>
+      <c r="R243" s="3">
+        <v>0</v>
+      </c>
+      <c r="S243" s="3">
+        <v>0</v>
+      </c>
+      <c r="T243" s="3">
+        <v>0</v>
+      </c>
+      <c r="U243" s="3">
+        <v>0</v>
+      </c>
+      <c r="V243" s="3">
+        <v>0</v>
+      </c>
+      <c r="W243" s="3">
+        <v>0</v>
+      </c>
+      <c r="X243" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y243" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF243" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU243" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW243" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX243" s="7"/>
+    </row>
+    <row r="244" spans="1:50">
+      <c r="A244" s="3">
+        <v>275</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E244" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F244" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G244" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H244" s="3">
+        <v>0</v>
+      </c>
+      <c r="I244" s="3">
+        <v>0</v>
+      </c>
+      <c r="J244" s="3">
+        <v>0</v>
+      </c>
+      <c r="K244" s="3">
+        <v>0</v>
+      </c>
+      <c r="L244" s="3">
+        <v>0</v>
+      </c>
+      <c r="M244" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N244" s="3">
+        <v>0</v>
+      </c>
+      <c r="O244" s="3">
+        <v>0</v>
+      </c>
+      <c r="P244" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q244" s="3">
+        <v>0</v>
+      </c>
+      <c r="R244" s="3">
+        <v>0</v>
+      </c>
+      <c r="S244" s="3">
+        <v>0</v>
+      </c>
+      <c r="T244" s="3">
+        <v>0</v>
+      </c>
+      <c r="U244" s="3">
+        <v>0</v>
+      </c>
+      <c r="V244" s="3">
+        <v>0</v>
+      </c>
+      <c r="W244" s="3">
+        <v>0</v>
+      </c>
+      <c r="X244" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y244" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF244" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU244" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW244" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX244" s="7"/>
+    </row>
+    <row r="245" spans="1:50">
+      <c r="A245" s="3">
+        <v>276</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E245" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F245" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G245" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H245" s="3">
+        <v>0</v>
+      </c>
+      <c r="I245" s="3">
+        <v>0</v>
+      </c>
+      <c r="J245" s="3">
+        <v>0</v>
+      </c>
+      <c r="K245" s="3">
+        <v>0</v>
+      </c>
+      <c r="L245" s="3">
+        <v>0</v>
+      </c>
+      <c r="M245" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N245" s="3">
+        <v>0</v>
+      </c>
+      <c r="O245" s="3">
+        <v>0</v>
+      </c>
+      <c r="P245" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q245" s="3">
+        <v>0</v>
+      </c>
+      <c r="R245" s="3">
+        <v>0</v>
+      </c>
+      <c r="S245" s="3">
+        <v>0</v>
+      </c>
+      <c r="T245" s="3">
+        <v>0</v>
+      </c>
+      <c r="U245" s="3">
+        <v>0</v>
+      </c>
+      <c r="V245" s="3">
+        <v>0</v>
+      </c>
+      <c r="W245" s="3">
+        <v>0</v>
+      </c>
+      <c r="X245" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y245" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF245" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU245" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW245" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX245" s="7"/>
+    </row>
+    <row r="246" spans="1:50">
+      <c r="A246" s="3">
+        <v>277</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E246" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F246" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G246" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H246" s="3">
+        <v>0</v>
+      </c>
+      <c r="I246" s="3">
+        <v>0</v>
+      </c>
+      <c r="J246" s="3">
+        <v>0</v>
+      </c>
+      <c r="K246" s="3">
+        <v>0</v>
+      </c>
+      <c r="L246" s="3">
+        <v>0</v>
+      </c>
+      <c r="M246" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N246" s="3">
+        <v>0</v>
+      </c>
+      <c r="O246" s="3">
+        <v>0</v>
+      </c>
+      <c r="P246" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q246" s="3">
+        <v>0</v>
+      </c>
+      <c r="R246" s="3">
+        <v>0</v>
+      </c>
+      <c r="S246" s="3">
+        <v>0</v>
+      </c>
+      <c r="T246" s="3">
+        <v>0</v>
+      </c>
+      <c r="U246" s="3">
+        <v>0</v>
+      </c>
+      <c r="V246" s="3">
+        <v>0</v>
+      </c>
+      <c r="W246" s="3">
+        <v>0</v>
+      </c>
+      <c r="X246" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y246" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF246" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU246" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW246" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX246" s="7"/>
+    </row>
+    <row r="247" spans="1:50">
+      <c r="A247" s="3">
+        <v>278</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E247" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F247" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G247" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H247" s="3">
+        <v>0</v>
+      </c>
+      <c r="I247" s="3">
+        <v>0</v>
+      </c>
+      <c r="J247" s="3">
+        <v>0</v>
+      </c>
+      <c r="K247" s="3">
+        <v>0</v>
+      </c>
+      <c r="L247" s="3">
+        <v>0</v>
+      </c>
+      <c r="M247" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N247" s="3">
+        <v>0</v>
+      </c>
+      <c r="O247" s="3">
+        <v>0</v>
+      </c>
+      <c r="P247" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q247" s="3">
+        <v>0</v>
+      </c>
+      <c r="R247" s="3">
+        <v>0</v>
+      </c>
+      <c r="S247" s="3">
+        <v>0</v>
+      </c>
+      <c r="T247" s="3">
+        <v>0</v>
+      </c>
+      <c r="U247" s="3">
+        <v>0</v>
+      </c>
+      <c r="V247" s="3">
+        <v>0</v>
+      </c>
+      <c r="W247" s="3">
+        <v>0</v>
+      </c>
+      <c r="X247" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y247" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF247" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU247" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW247" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX247" s="7"/>
+    </row>
+    <row r="248" spans="1:50">
+      <c r="A248" s="3">
+        <v>279</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E248" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F248" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G248" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H248" s="3">
+        <v>0</v>
+      </c>
+      <c r="I248" s="3">
+        <v>0</v>
+      </c>
+      <c r="J248" s="3">
+        <v>0</v>
+      </c>
+      <c r="K248" s="3">
+        <v>0</v>
+      </c>
+      <c r="L248" s="3">
+        <v>0</v>
+      </c>
+      <c r="M248" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N248" s="3">
+        <v>0</v>
+      </c>
+      <c r="O248" s="3">
+        <v>0</v>
+      </c>
+      <c r="P248" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q248" s="3">
+        <v>0</v>
+      </c>
+      <c r="R248" s="3">
+        <v>0</v>
+      </c>
+      <c r="S248" s="3">
+        <v>0</v>
+      </c>
+      <c r="T248" s="3">
+        <v>0</v>
+      </c>
+      <c r="U248" s="3">
+        <v>0</v>
+      </c>
+      <c r="V248" s="3">
+        <v>0</v>
+      </c>
+      <c r="W248" s="3">
+        <v>0</v>
+      </c>
+      <c r="X248" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y248" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF248" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU248" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW248" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX248" s="7"/>
+    </row>
+    <row r="249" spans="1:50">
+      <c r="A249" s="3">
+        <v>280</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E249" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F249" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G249" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H249" s="3">
+        <v>0</v>
+      </c>
+      <c r="I249" s="3">
+        <v>0</v>
+      </c>
+      <c r="J249" s="3">
+        <v>0</v>
+      </c>
+      <c r="K249" s="3">
+        <v>0</v>
+      </c>
+      <c r="L249" s="3">
+        <v>0</v>
+      </c>
+      <c r="M249" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N249" s="3">
+        <v>0</v>
+      </c>
+      <c r="O249" s="3">
+        <v>0</v>
+      </c>
+      <c r="P249" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q249" s="3">
+        <v>0</v>
+      </c>
+      <c r="R249" s="3">
+        <v>0</v>
+      </c>
+      <c r="S249" s="3">
+        <v>0</v>
+      </c>
+      <c r="T249" s="3">
+        <v>0</v>
+      </c>
+      <c r="U249" s="3">
+        <v>0</v>
+      </c>
+      <c r="V249" s="3">
+        <v>0</v>
+      </c>
+      <c r="W249" s="3">
+        <v>0</v>
+      </c>
+      <c r="X249" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y249" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF249" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU249" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW249" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX249" s="7"/>
+    </row>
+    <row r="250" spans="1:50">
+      <c r="A250" s="3">
+        <v>281</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E250" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F250" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G250" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H250" s="3">
+        <v>0</v>
+      </c>
+      <c r="I250" s="3">
+        <v>0</v>
+      </c>
+      <c r="J250" s="3">
+        <v>0</v>
+      </c>
+      <c r="K250" s="3">
+        <v>0</v>
+      </c>
+      <c r="L250" s="3">
+        <v>0</v>
+      </c>
+      <c r="M250" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N250" s="3">
+        <v>0</v>
+      </c>
+      <c r="O250" s="3">
+        <v>0</v>
+      </c>
+      <c r="P250" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q250" s="3">
+        <v>0</v>
+      </c>
+      <c r="R250" s="3">
+        <v>0</v>
+      </c>
+      <c r="S250" s="3">
+        <v>0</v>
+      </c>
+      <c r="T250" s="3">
+        <v>0</v>
+      </c>
+      <c r="U250" s="3">
+        <v>0</v>
+      </c>
+      <c r="V250" s="3">
+        <v>0</v>
+      </c>
+      <c r="W250" s="3">
+        <v>0</v>
+      </c>
+      <c r="X250" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y250" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF250" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU250" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW250" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX250" s="7"/>
+    </row>
+    <row r="251" spans="1:50">
+      <c r="A251" s="3">
+        <v>282</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E251" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F251" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G251" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H251" s="3">
+        <v>0</v>
+      </c>
+      <c r="I251" s="3">
+        <v>0</v>
+      </c>
+      <c r="J251" s="3">
+        <v>0</v>
+      </c>
+      <c r="K251" s="3">
+        <v>0</v>
+      </c>
+      <c r="L251" s="3">
+        <v>0</v>
+      </c>
+      <c r="M251" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N251" s="3">
+        <v>0</v>
+      </c>
+      <c r="O251" s="3">
+        <v>0</v>
+      </c>
+      <c r="P251" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q251" s="3">
+        <v>0</v>
+      </c>
+      <c r="R251" s="3">
+        <v>0</v>
+      </c>
+      <c r="S251" s="3">
+        <v>0</v>
+      </c>
+      <c r="T251" s="3">
+        <v>0</v>
+      </c>
+      <c r="U251" s="3">
+        <v>0</v>
+      </c>
+      <c r="V251" s="3">
+        <v>0</v>
+      </c>
+      <c r="W251" s="3">
+        <v>0</v>
+      </c>
+      <c r="X251" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y251" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF251" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU251" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW251" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX251" s="7"/>
+    </row>
+    <row r="252" spans="1:50">
+      <c r="A252" s="3">
+        <v>283</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E252" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F252" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G252" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H252" s="3">
+        <v>0</v>
+      </c>
+      <c r="I252" s="3">
+        <v>0</v>
+      </c>
+      <c r="J252" s="3">
+        <v>0</v>
+      </c>
+      <c r="K252" s="3">
+        <v>0</v>
+      </c>
+      <c r="L252" s="3">
+        <v>0</v>
+      </c>
+      <c r="M252" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N252" s="3">
+        <v>0</v>
+      </c>
+      <c r="O252" s="3">
+        <v>0</v>
+      </c>
+      <c r="P252" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q252" s="3">
+        <v>0</v>
+      </c>
+      <c r="R252" s="3">
+        <v>0</v>
+      </c>
+      <c r="S252" s="3">
+        <v>0</v>
+      </c>
+      <c r="T252" s="3">
+        <v>0</v>
+      </c>
+      <c r="U252" s="3">
+        <v>0</v>
+      </c>
+      <c r="V252" s="3">
+        <v>0</v>
+      </c>
+      <c r="W252" s="3">
+        <v>0</v>
+      </c>
+      <c r="X252" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y252" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF252" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU252" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW252" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX252" s="7"/>
+    </row>
+    <row r="253" spans="1:50">
+      <c r="A253" s="3">
+        <v>284</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E253" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F253" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G253" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H253" s="3">
+        <v>0</v>
+      </c>
+      <c r="I253" s="3">
+        <v>0</v>
+      </c>
+      <c r="J253" s="3">
+        <v>0</v>
+      </c>
+      <c r="K253" s="3">
+        <v>0</v>
+      </c>
+      <c r="L253" s="3">
+        <v>0</v>
+      </c>
+      <c r="M253" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N253" s="3">
+        <v>0</v>
+      </c>
+      <c r="O253" s="3">
+        <v>0</v>
+      </c>
+      <c r="P253" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q253" s="3">
+        <v>0</v>
+      </c>
+      <c r="R253" s="3">
+        <v>0</v>
+      </c>
+      <c r="S253" s="3">
+        <v>0</v>
+      </c>
+      <c r="T253" s="3">
+        <v>0</v>
+      </c>
+      <c r="U253" s="3">
+        <v>0</v>
+      </c>
+      <c r="V253" s="3">
+        <v>0</v>
+      </c>
+      <c r="W253" s="3">
+        <v>0</v>
+      </c>
+      <c r="X253" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y253" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF253" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU253" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW253" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX253" s="7"/>
+    </row>
+    <row r="254" spans="1:50">
+      <c r="A254" s="3">
+        <v>285</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E254" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F254" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G254" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H254" s="3">
+        <v>0</v>
+      </c>
+      <c r="I254" s="3">
+        <v>0</v>
+      </c>
+      <c r="J254" s="3">
+        <v>0</v>
+      </c>
+      <c r="K254" s="3">
+        <v>0</v>
+      </c>
+      <c r="L254" s="3">
+        <v>0</v>
+      </c>
+      <c r="M254" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N254" s="3">
+        <v>0</v>
+      </c>
+      <c r="O254" s="3">
+        <v>0</v>
+      </c>
+      <c r="P254" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q254" s="3">
+        <v>0</v>
+      </c>
+      <c r="R254" s="3">
+        <v>0</v>
+      </c>
+      <c r="S254" s="3">
+        <v>0</v>
+      </c>
+      <c r="T254" s="3">
+        <v>0</v>
+      </c>
+      <c r="U254" s="3">
+        <v>0</v>
+      </c>
+      <c r="V254" s="3">
+        <v>0</v>
+      </c>
+      <c r="W254" s="3">
+        <v>0</v>
+      </c>
+      <c r="X254" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y254" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF254" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU254" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW254" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX254" s="7"/>
+    </row>
+    <row r="255" spans="1:50">
+      <c r="A255" s="3">
+        <v>286</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E255" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F255" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G255" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H255" s="3">
+        <v>0</v>
+      </c>
+      <c r="I255" s="3">
+        <v>0</v>
+      </c>
+      <c r="J255" s="3">
+        <v>0</v>
+      </c>
+      <c r="K255" s="3">
+        <v>0</v>
+      </c>
+      <c r="L255" s="3">
+        <v>0</v>
+      </c>
+      <c r="M255" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N255" s="3">
+        <v>0</v>
+      </c>
+      <c r="O255" s="3">
+        <v>0</v>
+      </c>
+      <c r="P255" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q255" s="3">
+        <v>0</v>
+      </c>
+      <c r="R255" s="3">
+        <v>0</v>
+      </c>
+      <c r="S255" s="3">
+        <v>0</v>
+      </c>
+      <c r="T255" s="3">
+        <v>0</v>
+      </c>
+      <c r="U255" s="3">
+        <v>0</v>
+      </c>
+      <c r="V255" s="3">
+        <v>0</v>
+      </c>
+      <c r="W255" s="3">
+        <v>0</v>
+      </c>
+      <c r="X255" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y255" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF255" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU255" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW255" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX255" s="7"/>
+    </row>
+    <row r="256" spans="1:50">
+      <c r="A256" s="3">
+        <v>287</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E256" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F256" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G256" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H256" s="3">
+        <v>0</v>
+      </c>
+      <c r="I256" s="3">
+        <v>0</v>
+      </c>
+      <c r="J256" s="3">
+        <v>0</v>
+      </c>
+      <c r="K256" s="3">
+        <v>0</v>
+      </c>
+      <c r="L256" s="3">
+        <v>0</v>
+      </c>
+      <c r="M256" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N256" s="3">
+        <v>0</v>
+      </c>
+      <c r="O256" s="3">
+        <v>0</v>
+      </c>
+      <c r="P256" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q256" s="3">
+        <v>0</v>
+      </c>
+      <c r="R256" s="3">
+        <v>0</v>
+      </c>
+      <c r="S256" s="3">
+        <v>0</v>
+      </c>
+      <c r="T256" s="3">
+        <v>0</v>
+      </c>
+      <c r="U256" s="3">
+        <v>0</v>
+      </c>
+      <c r="V256" s="3">
+        <v>0</v>
+      </c>
+      <c r="W256" s="3">
+        <v>0</v>
+      </c>
+      <c r="X256" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y256" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF256" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU256" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW256" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX256" s="7"/>
+    </row>
+    <row r="257" spans="1:50">
+      <c r="A257" s="3">
+        <v>288</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E257" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F257" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G257" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H257" s="3">
+        <v>0</v>
+      </c>
+      <c r="I257" s="3">
+        <v>0</v>
+      </c>
+      <c r="J257" s="3">
+        <v>0</v>
+      </c>
+      <c r="K257" s="3">
+        <v>0</v>
+      </c>
+      <c r="L257" s="3">
+        <v>0</v>
+      </c>
+      <c r="M257" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N257" s="3">
+        <v>0</v>
+      </c>
+      <c r="O257" s="3">
+        <v>0</v>
+      </c>
+      <c r="P257" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q257" s="3">
+        <v>0</v>
+      </c>
+      <c r="R257" s="3">
+        <v>0</v>
+      </c>
+      <c r="S257" s="3">
+        <v>0</v>
+      </c>
+      <c r="T257" s="3">
+        <v>0</v>
+      </c>
+      <c r="U257" s="3">
+        <v>0</v>
+      </c>
+      <c r="V257" s="3">
+        <v>0</v>
+      </c>
+      <c r="W257" s="3">
+        <v>0</v>
+      </c>
+      <c r="X257" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y257" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF257" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU257" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW257" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX257" s="7"/>
+    </row>
+    <row r="258" spans="1:50">
+      <c r="A258" s="3">
+        <v>289</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E258" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F258" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G258" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H258" s="3">
+        <v>0</v>
+      </c>
+      <c r="I258" s="3">
+        <v>0</v>
+      </c>
+      <c r="J258" s="3">
+        <v>0</v>
+      </c>
+      <c r="K258" s="3">
+        <v>0</v>
+      </c>
+      <c r="L258" s="3">
+        <v>0</v>
+      </c>
+      <c r="M258" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N258" s="3">
+        <v>0</v>
+      </c>
+      <c r="O258" s="3">
+        <v>0</v>
+      </c>
+      <c r="P258" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q258" s="3">
+        <v>0</v>
+      </c>
+      <c r="R258" s="3">
+        <v>0</v>
+      </c>
+      <c r="S258" s="3">
+        <v>0</v>
+      </c>
+      <c r="T258" s="3">
+        <v>0</v>
+      </c>
+      <c r="U258" s="3">
+        <v>0</v>
+      </c>
+      <c r="V258" s="3">
+        <v>0</v>
+      </c>
+      <c r="W258" s="3">
+        <v>0</v>
+      </c>
+      <c r="X258" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y258" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF258" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU258" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW258" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX258" s="7"/>
+    </row>
+    <row r="259" spans="1:50">
+      <c r="A259" s="3">
+        <v>290</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E259" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F259" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G259" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H259" s="3">
+        <v>0</v>
+      </c>
+      <c r="I259" s="3">
+        <v>0</v>
+      </c>
+      <c r="J259" s="3">
+        <v>0</v>
+      </c>
+      <c r="K259" s="3">
+        <v>0</v>
+      </c>
+      <c r="L259" s="3">
+        <v>0</v>
+      </c>
+      <c r="M259" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N259" s="3">
+        <v>0</v>
+      </c>
+      <c r="O259" s="3">
+        <v>0</v>
+      </c>
+      <c r="P259" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q259" s="3">
+        <v>0</v>
+      </c>
+      <c r="R259" s="3">
+        <v>0</v>
+      </c>
+      <c r="S259" s="3">
+        <v>0</v>
+      </c>
+      <c r="T259" s="3">
+        <v>0</v>
+      </c>
+      <c r="U259" s="3">
+        <v>0</v>
+      </c>
+      <c r="V259" s="3">
+        <v>0</v>
+      </c>
+      <c r="W259" s="3">
+        <v>0</v>
+      </c>
+      <c r="X259" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y259" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF259" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU259" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW259" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX259" s="7"/>
+    </row>
+    <row r="260" spans="1:50">
+      <c r="A260" s="3">
+        <v>291</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E260" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F260" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G260" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H260" s="3">
+        <v>0</v>
+      </c>
+      <c r="I260" s="3">
+        <v>0</v>
+      </c>
+      <c r="J260" s="3">
+        <v>0</v>
+      </c>
+      <c r="K260" s="3">
+        <v>0</v>
+      </c>
+      <c r="L260" s="3">
+        <v>0</v>
+      </c>
+      <c r="M260" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N260" s="3">
+        <v>0</v>
+      </c>
+      <c r="O260" s="3">
+        <v>0</v>
+      </c>
+      <c r="P260" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q260" s="3">
+        <v>0</v>
+      </c>
+      <c r="R260" s="3">
+        <v>0</v>
+      </c>
+      <c r="S260" s="3">
+        <v>0</v>
+      </c>
+      <c r="T260" s="3">
+        <v>0</v>
+      </c>
+      <c r="U260" s="3">
+        <v>0</v>
+      </c>
+      <c r="V260" s="3">
+        <v>0</v>
+      </c>
+      <c r="W260" s="3">
+        <v>0</v>
+      </c>
+      <c r="X260" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y260" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF260" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU260" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW260" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX260" s="7"/>
+    </row>
+    <row r="261" spans="1:50">
+      <c r="A261" s="3">
+        <v>292</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E261" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F261" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G261" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H261" s="3">
+        <v>0</v>
+      </c>
+      <c r="I261" s="3">
+        <v>0</v>
+      </c>
+      <c r="J261" s="3">
+        <v>0</v>
+      </c>
+      <c r="K261" s="3">
+        <v>0</v>
+      </c>
+      <c r="L261" s="3">
+        <v>0</v>
+      </c>
+      <c r="M261" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N261" s="3">
+        <v>0</v>
+      </c>
+      <c r="O261" s="3">
+        <v>0</v>
+      </c>
+      <c r="P261" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q261" s="3">
+        <v>0</v>
+      </c>
+      <c r="R261" s="3">
+        <v>0</v>
+      </c>
+      <c r="S261" s="3">
+        <v>0</v>
+      </c>
+      <c r="T261" s="3">
+        <v>0</v>
+      </c>
+      <c r="U261" s="3">
+        <v>0</v>
+      </c>
+      <c r="V261" s="3">
+        <v>0</v>
+      </c>
+      <c r="W261" s="3">
+        <v>0</v>
+      </c>
+      <c r="X261" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y261" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF261" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU261" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW261" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX261" s="7"/>
+    </row>
+    <row r="262" spans="1:50">
+      <c r="A262" s="3">
+        <v>293</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E262" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F262" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G262" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H262" s="3">
+        <v>0</v>
+      </c>
+      <c r="I262" s="3">
+        <v>0</v>
+      </c>
+      <c r="J262" s="3">
+        <v>0</v>
+      </c>
+      <c r="K262" s="3">
+        <v>0</v>
+      </c>
+      <c r="L262" s="3">
+        <v>0</v>
+      </c>
+      <c r="M262" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N262" s="3">
+        <v>0</v>
+      </c>
+      <c r="O262" s="3">
+        <v>0</v>
+      </c>
+      <c r="P262" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q262" s="3">
+        <v>0</v>
+      </c>
+      <c r="R262" s="3">
+        <v>0</v>
+      </c>
+      <c r="S262" s="3">
+        <v>0</v>
+      </c>
+      <c r="T262" s="3">
+        <v>0</v>
+      </c>
+      <c r="U262" s="3">
+        <v>0</v>
+      </c>
+      <c r="V262" s="3">
+        <v>0</v>
+      </c>
+      <c r="W262" s="3">
+        <v>0</v>
+      </c>
+      <c r="X262" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y262" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF262" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU262" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW262" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX262" s="7"/>
+    </row>
+    <row r="263" spans="1:50">
+      <c r="A263" s="3">
+        <v>294</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E263" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F263" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G263" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H263" s="3">
+        <v>0</v>
+      </c>
+      <c r="I263" s="3">
+        <v>0</v>
+      </c>
+      <c r="J263" s="3">
+        <v>0</v>
+      </c>
+      <c r="K263" s="3">
+        <v>0</v>
+      </c>
+      <c r="L263" s="3">
+        <v>0</v>
+      </c>
+      <c r="M263" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N263" s="3">
+        <v>0</v>
+      </c>
+      <c r="O263" s="3">
+        <v>0</v>
+      </c>
+      <c r="P263" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q263" s="3">
+        <v>0</v>
+      </c>
+      <c r="R263" s="3">
+        <v>0</v>
+      </c>
+      <c r="S263" s="3">
+        <v>0</v>
+      </c>
+      <c r="T263" s="3">
+        <v>0</v>
+      </c>
+      <c r="U263" s="3">
+        <v>0</v>
+      </c>
+      <c r="V263" s="3">
+        <v>0</v>
+      </c>
+      <c r="W263" s="3">
+        <v>0</v>
+      </c>
+      <c r="X263" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y263" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF263" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU263" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW263" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX263" s="7"/>
+    </row>
+    <row r="264" spans="1:50">
+      <c r="A264" s="3">
+        <v>295</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E264" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F264" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G264" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H264" s="3">
+        <v>0</v>
+      </c>
+      <c r="I264" s="3">
+        <v>0</v>
+      </c>
+      <c r="J264" s="3">
+        <v>0</v>
+      </c>
+      <c r="K264" s="3">
+        <v>0</v>
+      </c>
+      <c r="L264" s="3">
+        <v>0</v>
+      </c>
+      <c r="M264" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N264" s="3">
+        <v>0</v>
+      </c>
+      <c r="O264" s="3">
+        <v>0</v>
+      </c>
+      <c r="P264" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q264" s="3">
+        <v>0</v>
+      </c>
+      <c r="R264" s="3">
+        <v>0</v>
+      </c>
+      <c r="S264" s="3">
+        <v>0</v>
+      </c>
+      <c r="T264" s="3">
+        <v>0</v>
+      </c>
+      <c r="U264" s="3">
+        <v>0</v>
+      </c>
+      <c r="V264" s="3">
+        <v>0</v>
+      </c>
+      <c r="W264" s="3">
+        <v>0</v>
+      </c>
+      <c r="X264" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y264" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF264" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU264" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW264" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX264" s="7"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A3:AX264">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/jyx2/Assets/Mods/PLUS/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/物品.xlsx
@@ -2172,6 +2172,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>残</t>
     </r>
     <r>
@@ -3437,10 +3443,10 @@
   <sheetPr/>
   <dimension ref="A1:AX264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AM234" sqref="AM234"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="$A41:$XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9326,7 +9332,7 @@
         <v>-1</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -23121,7 +23127,7 @@
       <c r="A133" s="3">
         <v>129</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="4" t="s">
         <v>462</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -30021,7 +30027,7 @@
       <c r="A179" s="3">
         <v>175</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="4" t="s">
         <v>573</v>
       </c>
       <c r="C179" s="3" t="s">
@@ -31221,7 +31227,7 @@
       <c r="A187" s="3">
         <v>183</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="4" t="s">
         <v>596</v>
       </c>
       <c r="C187" s="3" t="s">

--- a/jyx2/Assets/Mods/PLUS/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/物品.xlsx
@@ -10,14 +10,14 @@
     <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$3:$AX$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$3:$AX$265</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="713">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -3441,12 +3441,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AX264"/>
+  <dimension ref="A1:AX265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="$A41:$XFD41"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3698,7 +3698,7 @@
       <c r="AD3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="4" t="s">
         <v>79</v>
       </c>
       <c r="AF3" s="3" t="s">
@@ -9332,7 +9332,7 @@
         <v>-1</v>
       </c>
       <c r="H41" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -9919,7 +9919,7 @@
       <c r="C45" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E45" s="3">
@@ -13531,7 +13531,7 @@
       <c r="C69" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="4" t="s">
         <v>296</v>
       </c>
       <c r="E69" s="3">
@@ -34373,18 +34373,18 @@
       </c>
       <c r="AX207" s="7"/>
     </row>
-    <row r="208" spans="1:50">
+    <row r="208" customFormat="1" spans="1:50">
       <c r="A208" s="3">
-        <v>239</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>653</v>
+        <v>237</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>654</v>
+        <v>208</v>
       </c>
       <c r="E208" s="3">
         <v>-1</v>
@@ -34396,7 +34396,7 @@
         <v>-1</v>
       </c>
       <c r="H208" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I208" s="3">
         <v>0</v>
@@ -34411,7 +34411,7 @@
         <v>0</v>
       </c>
       <c r="M208" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N208" s="3">
         <v>0</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="V208" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W208" s="3">
         <v>0</v>
@@ -34465,10 +34465,10 @@
         <v>0</v>
       </c>
       <c r="AE208" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF208" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG208" s="3">
         <v>0</v>
@@ -34525,7 +34525,7 @@
     </row>
     <row r="209" spans="1:50">
       <c r="A209" s="3">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>652</v>
@@ -34534,7 +34534,7 @@
         <v>653</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E209" s="3">
         <v>-1</v>
@@ -34675,16 +34675,16 @@
     </row>
     <row r="210" spans="1:50">
       <c r="A210" s="3">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>655</v>
       </c>
       <c r="E210" s="3">
         <v>-1</v>
@@ -34825,16 +34825,16 @@
     </row>
     <row r="211" spans="1:50">
       <c r="A211" s="3">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>656</v>
       </c>
       <c r="E211" s="3">
         <v>-1</v>
@@ -34975,7 +34975,7 @@
     </row>
     <row r="212" spans="1:50">
       <c r="A212" s="3">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>652</v>
@@ -34984,7 +34984,7 @@
         <v>653</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E212" s="3">
         <v>-1</v>
@@ -35125,7 +35125,7 @@
     </row>
     <row r="213" spans="1:50">
       <c r="A213" s="3">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>652</v>
@@ -35134,7 +35134,7 @@
         <v>653</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E213" s="3">
         <v>-1</v>
@@ -35275,7 +35275,7 @@
     </row>
     <row r="214" spans="1:50">
       <c r="A214" s="3">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>652</v>
@@ -35284,7 +35284,7 @@
         <v>653</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E214" s="3">
         <v>-1</v>
@@ -35425,7 +35425,7 @@
     </row>
     <row r="215" spans="1:50">
       <c r="A215" s="3">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>652</v>
@@ -35434,7 +35434,7 @@
         <v>653</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E215" s="3">
         <v>-1</v>
@@ -35575,7 +35575,7 @@
     </row>
     <row r="216" spans="1:50">
       <c r="A216" s="3">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>652</v>
@@ -35584,7 +35584,7 @@
         <v>653</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E216" s="3">
         <v>-1</v>
@@ -35725,7 +35725,7 @@
     </row>
     <row r="217" spans="1:50">
       <c r="A217" s="3">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>652</v>
@@ -35734,7 +35734,7 @@
         <v>653</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E217" s="3">
         <v>-1</v>
@@ -35875,7 +35875,7 @@
     </row>
     <row r="218" spans="1:50">
       <c r="A218" s="3">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>652</v>
@@ -35884,7 +35884,7 @@
         <v>653</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E218" s="3">
         <v>-1</v>
@@ -36025,7 +36025,7 @@
     </row>
     <row r="219" spans="1:50">
       <c r="A219" s="3">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>652</v>
@@ -36034,7 +36034,7 @@
         <v>653</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E219" s="3">
         <v>-1</v>
@@ -36175,7 +36175,7 @@
     </row>
     <row r="220" spans="1:50">
       <c r="A220" s="3">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>652</v>
@@ -36184,7 +36184,7 @@
         <v>653</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E220" s="3">
         <v>-1</v>
@@ -36325,7 +36325,7 @@
     </row>
     <row r="221" spans="1:50">
       <c r="A221" s="3">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>652</v>
@@ -36334,7 +36334,7 @@
         <v>653</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E221" s="3">
         <v>-1</v>
@@ -36475,7 +36475,7 @@
     </row>
     <row r="222" spans="1:50">
       <c r="A222" s="3">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>652</v>
@@ -36484,7 +36484,7 @@
         <v>653</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E222" s="3">
         <v>-1</v>
@@ -36625,7 +36625,7 @@
     </row>
     <row r="223" spans="1:50">
       <c r="A223" s="3">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>652</v>
@@ -36634,7 +36634,7 @@
         <v>653</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E223" s="3">
         <v>-1</v>
@@ -36775,7 +36775,7 @@
     </row>
     <row r="224" spans="1:50">
       <c r="A224" s="3">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>652</v>
@@ -36784,7 +36784,7 @@
         <v>653</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E224" s="3">
         <v>-1</v>
@@ -36925,7 +36925,7 @@
     </row>
     <row r="225" spans="1:50">
       <c r="A225" s="3">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>652</v>
@@ -36934,7 +36934,7 @@
         <v>653</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E225" s="3">
         <v>-1</v>
@@ -37075,7 +37075,7 @@
     </row>
     <row r="226" spans="1:50">
       <c r="A226" s="3">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>652</v>
@@ -37084,7 +37084,7 @@
         <v>653</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E226" s="3">
         <v>-1</v>
@@ -37225,7 +37225,7 @@
     </row>
     <row r="227" spans="1:50">
       <c r="A227" s="3">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>652</v>
@@ -37234,7 +37234,7 @@
         <v>653</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E227" s="3">
         <v>-1</v>
@@ -37375,7 +37375,7 @@
     </row>
     <row r="228" spans="1:50">
       <c r="A228" s="3">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>652</v>
@@ -37384,7 +37384,7 @@
         <v>653</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E228" s="3">
         <v>-1</v>
@@ -37525,7 +37525,7 @@
     </row>
     <row r="229" spans="1:50">
       <c r="A229" s="3">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>652</v>
@@ -37534,7 +37534,7 @@
         <v>653</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E229" s="3">
         <v>-1</v>
@@ -37675,7 +37675,7 @@
     </row>
     <row r="230" spans="1:50">
       <c r="A230" s="3">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>652</v>
@@ -37684,7 +37684,7 @@
         <v>653</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E230" s="3">
         <v>-1</v>
@@ -37825,7 +37825,7 @@
     </row>
     <row r="231" spans="1:50">
       <c r="A231" s="3">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>652</v>
@@ -37834,7 +37834,7 @@
         <v>653</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E231" s="3">
         <v>-1</v>
@@ -37975,7 +37975,7 @@
     </row>
     <row r="232" spans="1:50">
       <c r="A232" s="3">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>652</v>
@@ -37984,7 +37984,7 @@
         <v>653</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E232" s="3">
         <v>-1</v>
@@ -38125,7 +38125,7 @@
     </row>
     <row r="233" spans="1:50">
       <c r="A233" s="3">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>652</v>
@@ -38134,7 +38134,7 @@
         <v>653</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E233" s="3">
         <v>-1</v>
@@ -38275,16 +38275,16 @@
     </row>
     <row r="234" spans="1:50">
       <c r="A234" s="3">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>681</v>
+        <v>652</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>681</v>
+        <v>653</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>680</v>
       </c>
       <c r="E234" s="3">
         <v>-1</v>
@@ -38293,10 +38293,10 @@
         <v>-1</v>
       </c>
       <c r="G234" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H234" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" s="3">
         <v>0</v>
@@ -38338,7 +38338,7 @@
         <v>0</v>
       </c>
       <c r="V234" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W234" s="3">
         <v>0</v>
@@ -38365,7 +38365,7 @@
         <v>0</v>
       </c>
       <c r="AE234" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF234" s="3">
         <v>-1</v>
@@ -38383,7 +38383,7 @@
         <v>0</v>
       </c>
       <c r="AK234" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL234" s="3">
         <v>0</v>
@@ -38392,7 +38392,7 @@
         <v>0</v>
       </c>
       <c r="AN234" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AO234" s="3">
         <v>0</v>
@@ -38425,16 +38425,16 @@
     </row>
     <row r="235" spans="1:50">
       <c r="A235" s="3">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>681</v>
       </c>
       <c r="E235" s="3">
         <v>-1</v>
@@ -38443,10 +38443,10 @@
         <v>-1</v>
       </c>
       <c r="G235" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H235" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235" s="3">
         <v>0</v>
@@ -38488,7 +38488,7 @@
         <v>0</v>
       </c>
       <c r="V235" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W235" s="3">
         <v>0</v>
@@ -38515,7 +38515,7 @@
         <v>0</v>
       </c>
       <c r="AE235" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF235" s="3">
         <v>-1</v>
@@ -38533,7 +38533,7 @@
         <v>0</v>
       </c>
       <c r="AK235" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL235" s="3">
         <v>0</v>
@@ -38542,7 +38542,7 @@
         <v>0</v>
       </c>
       <c r="AN235" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO235" s="3">
         <v>0</v>
@@ -38575,7 +38575,7 @@
     </row>
     <row r="236" spans="1:50">
       <c r="A236" s="3">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>652</v>
@@ -38584,7 +38584,7 @@
         <v>653</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E236" s="3">
         <v>-1</v>
@@ -38725,7 +38725,7 @@
     </row>
     <row r="237" spans="1:50">
       <c r="A237" s="3">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>652</v>
@@ -38734,7 +38734,7 @@
         <v>653</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E237" s="3">
         <v>-1</v>
@@ -38875,7 +38875,7 @@
     </row>
     <row r="238" spans="1:50">
       <c r="A238" s="3">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>652</v>
@@ -38884,7 +38884,7 @@
         <v>653</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E238" s="3">
         <v>-1</v>
@@ -39025,7 +39025,7 @@
     </row>
     <row r="239" spans="1:50">
       <c r="A239" s="3">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>652</v>
@@ -39034,7 +39034,7 @@
         <v>653</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E239" s="3">
         <v>-1</v>
@@ -39175,7 +39175,7 @@
     </row>
     <row r="240" spans="1:50">
       <c r="A240" s="3">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>652</v>
@@ -39184,7 +39184,7 @@
         <v>653</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E240" s="3">
         <v>-1</v>
@@ -39325,7 +39325,7 @@
     </row>
     <row r="241" spans="1:50">
       <c r="A241" s="3">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>652</v>
@@ -39334,7 +39334,7 @@
         <v>653</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E241" s="3">
         <v>-1</v>
@@ -39475,7 +39475,7 @@
     </row>
     <row r="242" spans="1:50">
       <c r="A242" s="3">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>652</v>
@@ -39484,7 +39484,7 @@
         <v>653</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E242" s="3">
         <v>-1</v>
@@ -39625,7 +39625,7 @@
     </row>
     <row r="243" spans="1:50">
       <c r="A243" s="3">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>652</v>
@@ -39634,7 +39634,7 @@
         <v>653</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E243" s="3">
         <v>-1</v>
@@ -39775,7 +39775,7 @@
     </row>
     <row r="244" spans="1:50">
       <c r="A244" s="3">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>652</v>
@@ -39784,7 +39784,7 @@
         <v>653</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E244" s="3">
         <v>-1</v>
@@ -39925,7 +39925,7 @@
     </row>
     <row r="245" spans="1:50">
       <c r="A245" s="3">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>652</v>
@@ -39934,7 +39934,7 @@
         <v>653</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E245" s="3">
         <v>-1</v>
@@ -40075,7 +40075,7 @@
     </row>
     <row r="246" spans="1:50">
       <c r="A246" s="3">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>652</v>
@@ -40084,7 +40084,7 @@
         <v>653</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E246" s="3">
         <v>-1</v>
@@ -40225,7 +40225,7 @@
     </row>
     <row r="247" spans="1:50">
       <c r="A247" s="3">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>652</v>
@@ -40234,7 +40234,7 @@
         <v>653</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E247" s="3">
         <v>-1</v>
@@ -40375,7 +40375,7 @@
     </row>
     <row r="248" spans="1:50">
       <c r="A248" s="3">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>652</v>
@@ -40384,7 +40384,7 @@
         <v>653</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E248" s="3">
         <v>-1</v>
@@ -40525,7 +40525,7 @@
     </row>
     <row r="249" spans="1:50">
       <c r="A249" s="3">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>652</v>
@@ -40534,7 +40534,7 @@
         <v>653</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E249" s="3">
         <v>-1</v>
@@ -40675,7 +40675,7 @@
     </row>
     <row r="250" spans="1:50">
       <c r="A250" s="3">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>652</v>
@@ -40684,7 +40684,7 @@
         <v>653</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E250" s="3">
         <v>-1</v>
@@ -40825,7 +40825,7 @@
     </row>
     <row r="251" spans="1:50">
       <c r="A251" s="3">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>652</v>
@@ -40834,7 +40834,7 @@
         <v>653</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E251" s="3">
         <v>-1</v>
@@ -40975,7 +40975,7 @@
     </row>
     <row r="252" spans="1:50">
       <c r="A252" s="3">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>652</v>
@@ -40984,7 +40984,7 @@
         <v>653</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E252" s="3">
         <v>-1</v>
@@ -41125,7 +41125,7 @@
     </row>
     <row r="253" spans="1:50">
       <c r="A253" s="3">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>652</v>
@@ -41134,7 +41134,7 @@
         <v>653</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E253" s="3">
         <v>-1</v>
@@ -41275,7 +41275,7 @@
     </row>
     <row r="254" spans="1:50">
       <c r="A254" s="3">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>652</v>
@@ -41284,7 +41284,7 @@
         <v>653</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E254" s="3">
         <v>-1</v>
@@ -41425,7 +41425,7 @@
     </row>
     <row r="255" spans="1:50">
       <c r="A255" s="3">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>652</v>
@@ -41434,7 +41434,7 @@
         <v>653</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E255" s="3">
         <v>-1</v>
@@ -41575,7 +41575,7 @@
     </row>
     <row r="256" spans="1:50">
       <c r="A256" s="3">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>652</v>
@@ -41584,7 +41584,7 @@
         <v>653</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E256" s="3">
         <v>-1</v>
@@ -41725,7 +41725,7 @@
     </row>
     <row r="257" spans="1:50">
       <c r="A257" s="3">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>652</v>
@@ -41734,7 +41734,7 @@
         <v>653</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E257" s="3">
         <v>-1</v>
@@ -41875,7 +41875,7 @@
     </row>
     <row r="258" spans="1:50">
       <c r="A258" s="3">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>652</v>
@@ -41884,7 +41884,7 @@
         <v>653</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E258" s="3">
         <v>-1</v>
@@ -42025,7 +42025,7 @@
     </row>
     <row r="259" spans="1:50">
       <c r="A259" s="3">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>652</v>
@@ -42034,7 +42034,7 @@
         <v>653</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E259" s="3">
         <v>-1</v>
@@ -42175,7 +42175,7 @@
     </row>
     <row r="260" spans="1:50">
       <c r="A260" s="3">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>652</v>
@@ -42184,7 +42184,7 @@
         <v>653</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E260" s="3">
         <v>-1</v>
@@ -42325,7 +42325,7 @@
     </row>
     <row r="261" spans="1:50">
       <c r="A261" s="3">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>652</v>
@@ -42334,7 +42334,7 @@
         <v>653</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E261" s="3">
         <v>-1</v>
@@ -42475,7 +42475,7 @@
     </row>
     <row r="262" spans="1:50">
       <c r="A262" s="3">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>652</v>
@@ -42484,7 +42484,7 @@
         <v>653</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E262" s="3">
         <v>-1</v>
@@ -42625,7 +42625,7 @@
     </row>
     <row r="263" spans="1:50">
       <c r="A263" s="3">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>652</v>
@@ -42634,7 +42634,7 @@
         <v>653</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E263" s="3">
         <v>-1</v>
@@ -42775,7 +42775,7 @@
     </row>
     <row r="264" spans="1:50">
       <c r="A264" s="3">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>652</v>
@@ -42784,7 +42784,7 @@
         <v>653</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E264" s="3">
         <v>-1</v>
@@ -42923,8 +42923,158 @@
       </c>
       <c r="AX264" s="7"/>
     </row>
+    <row r="265" spans="1:50">
+      <c r="A265" s="3">
+        <v>295</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E265" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F265" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G265" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H265" s="3">
+        <v>0</v>
+      </c>
+      <c r="I265" s="3">
+        <v>0</v>
+      </c>
+      <c r="J265" s="3">
+        <v>0</v>
+      </c>
+      <c r="K265" s="3">
+        <v>0</v>
+      </c>
+      <c r="L265" s="3">
+        <v>0</v>
+      </c>
+      <c r="M265" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N265" s="3">
+        <v>0</v>
+      </c>
+      <c r="O265" s="3">
+        <v>0</v>
+      </c>
+      <c r="P265" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q265" s="3">
+        <v>0</v>
+      </c>
+      <c r="R265" s="3">
+        <v>0</v>
+      </c>
+      <c r="S265" s="3">
+        <v>0</v>
+      </c>
+      <c r="T265" s="3">
+        <v>0</v>
+      </c>
+      <c r="U265" s="3">
+        <v>0</v>
+      </c>
+      <c r="V265" s="3">
+        <v>0</v>
+      </c>
+      <c r="W265" s="3">
+        <v>0</v>
+      </c>
+      <c r="X265" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y265" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF265" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU265" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW265" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX265" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:AX264">
+  <autoFilter ref="A3:AX265">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
